--- a/excel-hulpbestanden/beschikbaarheid-7.xlsx
+++ b/excel-hulpbestanden/beschikbaarheid-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van den Akker\planner\planner-app\excel-hulpbestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{115E3DBF-BDD7-44AE-9D6F-4ACA05FF4E65}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0ED17-54EA-4364-BC02-645620F839DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="1800" windowWidth="29040" windowHeight="16440" xr2:uid="{441931CC-1960-4929-88FC-9E923128FEA4}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{441931CC-1960-4929-88FC-9E923128FEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="728" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="92">
   <si>
     <t>Naam</t>
   </si>
@@ -290,13 +290,28 @@
     <t>Claire van Warmerdam</t>
   </si>
   <si>
-    <t>wo/vr later, tm 11 juli beschikbaar</t>
-  </si>
-  <si>
     <t>van 3/7 t/m 20/8 ma t/m do shift 1, vr t/m zo shift 2</t>
   </si>
   <si>
     <t>t/m  15 aug geldt dit</t>
+  </si>
+  <si>
+    <t>na ZF niet meer op vrijdag en na 25-8 helemaal niet meer</t>
+  </si>
+  <si>
+    <t>Vanaf augustus niet meer indelen (operatie)</t>
+  </si>
+  <si>
+    <t>wo/vr later, tm 11 juli beschikbaar, daarna niet meer</t>
+  </si>
+  <si>
+    <t>Lene te Molder</t>
+  </si>
+  <si>
+    <t>Tessa van Haren</t>
+  </si>
+  <si>
+    <t>Tyra Vroomen</t>
   </si>
 </sst>
 </file>
@@ -757,10 +772,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E942E7-99C6-4731-BEC2-AED1E14052AD}">
-  <dimension ref="A1:S44"/>
+  <dimension ref="A1:S47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1195,7 +1210,9 @@
       <c r="D8" s="6">
         <v>39164</v>
       </c>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1" t="s">
+        <v>86</v>
+      </c>
       <c r="F8" s="5" t="s">
         <v>23</v>
       </c>
@@ -1220,8 +1237,8 @@
       <c r="M8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N8" s="5" t="s">
-        <v>23</v>
+      <c r="N8" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O8" s="4" t="s">
         <v>24</v>
@@ -1658,7 +1675,7 @@
         <v>39379</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="F16" s="5" t="s">
         <v>23</v>
@@ -1835,7 +1852,7 @@
         <v>39049</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>4</v>
+        <v>87</v>
       </c>
       <c r="F19" s="4" t="s">
         <v>24</v>
@@ -1953,7 +1970,7 @@
         <v>38635</v>
       </c>
       <c r="E21" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F21" s="5" t="s">
         <v>23</v>
@@ -2173,7 +2190,7 @@
     </row>
     <row r="25" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B25" s="2" t="s">
         <v>6</v>
@@ -2182,11 +2199,9 @@
         <v>2</v>
       </c>
       <c r="D25" s="6">
-        <v>39220</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>84</v>
-      </c>
+        <v>38610</v>
+      </c>
+      <c r="E25" s="1"/>
       <c r="F25" s="4" t="s">
         <v>24</v>
       </c>
@@ -2196,11 +2211,11 @@
       <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J25" s="5" t="s">
-        <v>23</v>
+      <c r="I25" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>24</v>
@@ -2211,8 +2226,8 @@
       <c r="M25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N25" s="5" t="s">
-        <v>23</v>
+      <c r="N25" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O25" s="5" t="s">
         <v>23</v>
@@ -2226,24 +2241,26 @@
       <c r="R25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="4" t="s">
-        <v>24</v>
+      <c r="S25" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B26" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C26" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D26" s="6">
-        <v>40481</v>
-      </c>
-      <c r="E26" s="1"/>
+        <v>39220</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>88</v>
+      </c>
       <c r="F26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2280,8 +2297,8 @@
       <c r="Q26" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R26" s="5" t="s">
-        <v>23</v>
+      <c r="R26" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S26" s="4" t="s">
         <v>24</v>
@@ -2289,29 +2306,29 @@
     </row>
     <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="B27" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C27" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D27" s="6">
-        <v>39402</v>
+        <v>40481</v>
       </c>
       <c r="E27" s="1"/>
       <c r="F27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G27" s="5" t="s">
-        <v>23</v>
+      <c r="G27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I27" s="5" t="s">
-        <v>23</v>
+      <c r="I27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J27" s="4" t="s">
         <v>24</v>
@@ -2331,44 +2348,44 @@
       <c r="O27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q27" s="5" t="s">
-        <v>23</v>
+      <c r="P27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q27" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="R27" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S27" s="5" t="s">
-        <v>23</v>
+      <c r="S27" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B28" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D28" s="6">
-        <v>40452</v>
+        <v>39402</v>
       </c>
       <c r="E28" s="1"/>
       <c r="F28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G28" s="4" t="s">
-        <v>24</v>
+      <c r="G28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I28" s="4" t="s">
-        <v>24</v>
+      <c r="I28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J28" s="4" t="s">
         <v>24</v>
@@ -2388,31 +2405,31 @@
       <c r="O28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q28" s="4" t="s">
-        <v>24</v>
+      <c r="P28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R28" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S28" s="4" t="s">
-        <v>24</v>
+      <c r="S28" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>47</v>
+        <v>81</v>
       </c>
       <c r="B29" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C29" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D29" s="6">
-        <v>39276</v>
+        <v>40452</v>
       </c>
       <c r="E29" s="1"/>
       <c r="F29" s="4" t="s">
@@ -2421,8 +2438,8 @@
       <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H29" s="5" t="s">
-        <v>23</v>
+      <c r="H29" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I29" s="4" t="s">
         <v>24</v>
@@ -2433,8 +2450,8 @@
       <c r="K29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L29" s="5" t="s">
-        <v>23</v>
+      <c r="L29" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>24</v>
@@ -2451,8 +2468,8 @@
       <c r="Q29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="4" t="s">
-        <v>24</v>
+      <c r="R29" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S29" s="4" t="s">
         <v>24</v>
@@ -2460,22 +2477,20 @@
     </row>
     <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="B30" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C30" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D30" s="6">
-        <v>38353</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="F30" s="5" t="s">
-        <v>23</v>
+        <v>39276</v>
+      </c>
+      <c r="E30" s="1"/>
+      <c r="F30" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>24</v>
@@ -2483,11 +2498,11 @@
       <c r="H30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J30" s="5" t="s">
-        <v>23</v>
+      <c r="I30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J30" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K30" s="4" t="s">
         <v>24</v>
@@ -2495,74 +2510,76 @@
       <c r="L30" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N30" s="5" t="s">
-        <v>23</v>
+      <c r="M30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N30" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P30" s="5" t="s">
-        <v>23</v>
+      <c r="P30" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S30" s="5" t="s">
-        <v>23</v>
+      <c r="R30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S30" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="31" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>48</v>
+        <v>61</v>
       </c>
       <c r="B31" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C31" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D31" s="6">
-        <v>40451</v>
-      </c>
-      <c r="E31" s="1"/>
-      <c r="F31" s="4" t="s">
-        <v>24</v>
+        <v>38353</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>24</v>
+      <c r="H31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="K31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N31" s="4" t="s">
-        <v>24</v>
+      <c r="L31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O31" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P31" s="4" t="s">
-        <v>24</v>
+      <c r="P31" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q31" s="4" t="s">
         <v>24</v>
@@ -2570,29 +2587,29 @@
       <c r="R31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S31" s="4" t="s">
-        <v>24</v>
+      <c r="S31" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="32" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>57</v>
+        <v>48</v>
       </c>
       <c r="B32" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C32" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D32" s="6">
-        <v>38538</v>
+        <v>40451</v>
       </c>
       <c r="E32" s="1"/>
-      <c r="F32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>23</v>
+      <c r="F32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H32" s="4" t="s">
         <v>24</v>
@@ -2600,32 +2617,32 @@
       <c r="I32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K32" s="5" t="s">
-        <v>23</v>
+      <c r="J32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N32" s="5" t="s">
-        <v>23</v>
+      <c r="M32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R32" s="4" t="s">
-        <v>24</v>
+      <c r="P32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R32" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S32" s="4" t="s">
         <v>24</v>
@@ -2633,23 +2650,23 @@
     </row>
     <row r="33" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>49</v>
+        <v>57</v>
       </c>
       <c r="B33" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C33" s="3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D33" s="6">
-        <v>40114</v>
+        <v>38538</v>
       </c>
       <c r="E33" s="1"/>
-      <c r="F33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G33" s="4" t="s">
-        <v>24</v>
+      <c r="F33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H33" s="4" t="s">
         <v>24</v>
@@ -2657,32 +2674,32 @@
       <c r="I33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K33" s="4" t="s">
-        <v>24</v>
+      <c r="J33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N33" s="4" t="s">
-        <v>24</v>
+      <c r="M33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R33" s="5" t="s">
-        <v>23</v>
+      <c r="P33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R33" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>24</v>
@@ -2690,25 +2707,23 @@
     </row>
     <row r="34" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B34" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D34" s="6">
-        <v>39674</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>40114</v>
+      </c>
+      <c r="E34" s="1"/>
       <c r="F34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G34" s="5" t="s">
-        <v>23</v>
+      <c r="G34" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H34" s="4" t="s">
         <v>24</v>
@@ -2719,8 +2734,8 @@
       <c r="J34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K34" s="5" t="s">
-        <v>23</v>
+      <c r="K34" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L34" s="4" t="s">
         <v>24</v>
@@ -2734,22 +2749,22 @@
       <c r="O34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q34" s="5" t="s">
-        <v>23</v>
+      <c r="P34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q34" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="R34" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S34" s="5" t="s">
-        <v>23</v>
+      <c r="S34" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>82</v>
+        <v>50</v>
       </c>
       <c r="B35" s="2" t="s">
         <v>6</v>
@@ -2758,14 +2773,16 @@
         <v>2</v>
       </c>
       <c r="D35" s="6">
-        <v>39636</v>
-      </c>
-      <c r="E35" s="1"/>
+        <v>39674</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>77</v>
+      </c>
       <c r="F35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>24</v>
+      <c r="G35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H35" s="4" t="s">
         <v>24</v>
@@ -2776,14 +2793,14 @@
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="4" t="s">
-        <v>24</v>
+      <c r="K35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M35" s="5" t="s">
-        <v>23</v>
+      <c r="M35" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N35" s="4" t="s">
         <v>24</v>
@@ -2797,50 +2814,50 @@
       <c r="Q35" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S35" s="4" t="s">
-        <v>24</v>
+      <c r="R35" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S35" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B36" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C36" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D36" s="6">
-        <v>39762</v>
+        <v>39636</v>
       </c>
       <c r="E36" s="1"/>
-      <c r="F36" s="5" t="s">
-        <v>23</v>
+      <c r="F36" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M36" s="4" t="s">
-        <v>24</v>
+      <c r="H36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N36" s="4" t="s">
         <v>24</v>
@@ -2848,31 +2865,31 @@
       <c r="O36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q36" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S36" s="5" t="s">
-        <v>23</v>
+      <c r="P36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q36" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S36" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="37" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>51</v>
+        <v>80</v>
       </c>
       <c r="B37" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C37" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D37" s="6">
-        <v>38392</v>
+        <v>39762</v>
       </c>
       <c r="E37" s="1"/>
       <c r="F37" s="5" t="s">
@@ -2881,20 +2898,20 @@
       <c r="G37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L37" s="4" t="s">
-        <v>24</v>
+      <c r="H37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>24</v>
@@ -2911,8 +2928,8 @@
       <c r="Q37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="4" t="s">
-        <v>24</v>
+      <c r="R37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>23</v>
@@ -2920,22 +2937,20 @@
     </row>
     <row r="38" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B38" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C38" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D38" s="6">
-        <v>38547</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F38" s="4" t="s">
-        <v>24</v>
+        <v>38392</v>
+      </c>
+      <c r="E38" s="1"/>
+      <c r="F38" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="G38" s="4" t="s">
         <v>24</v>
@@ -2964,8 +2979,8 @@
       <c r="O38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P38" s="5" t="s">
-        <v>23</v>
+      <c r="P38" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q38" s="4" t="s">
         <v>24</v>
@@ -2973,50 +2988,52 @@
       <c r="R38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S38" s="4" t="s">
-        <v>24</v>
+      <c r="S38" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B39" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C39" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D39" s="6">
-        <v>37817</v>
-      </c>
-      <c r="E39" s="1"/>
-      <c r="F39" s="5" t="s">
-        <v>23</v>
+        <v>38547</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H39" s="5" t="s">
-        <v>23</v>
+      <c r="H39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J39" s="5" t="s">
-        <v>23</v>
+      <c r="J39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L39" s="5" t="s">
-        <v>23</v>
+      <c r="L39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N39" s="5" t="s">
-        <v>23</v>
+      <c r="N39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O39" s="4" t="s">
         <v>24</v>
@@ -3027,8 +3044,8 @@
       <c r="Q39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R39" s="5" t="s">
-        <v>23</v>
+      <c r="R39" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S39" s="4" t="s">
         <v>24</v>
@@ -3036,7 +3053,7 @@
     </row>
     <row r="40" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B40" s="2" t="s">
         <v>6</v>
@@ -3045,28 +3062,26 @@
         <v>4</v>
       </c>
       <c r="D40" s="6">
-        <v>38183</v>
-      </c>
-      <c r="E40" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H40" s="4" t="s">
-        <v>24</v>
+        <v>37817</v>
+      </c>
+      <c r="E40" s="1"/>
+      <c r="F40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H40" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K40" s="5" t="s">
-        <v>23</v>
+      <c r="J40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K40" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L40" s="5" t="s">
         <v>23</v>
@@ -3086,8 +3101,8 @@
       <c r="Q40" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R40" s="4" t="s">
-        <v>24</v>
+      <c r="R40" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S40" s="4" t="s">
         <v>24</v>
@@ -3095,32 +3110,34 @@
     </row>
     <row r="41" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>78</v>
+        <v>54</v>
       </c>
       <c r="B41" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C41" s="3">
+        <v>4</v>
+      </c>
+      <c r="D41" s="6">
+        <v>38183</v>
+      </c>
+      <c r="E41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D41" s="6">
-        <v>38317</v>
-      </c>
-      <c r="E41" s="1"/>
-      <c r="F41" s="5" t="s">
-        <v>23</v>
+      <c r="F41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J41" s="5" t="s">
-        <v>23</v>
+      <c r="H41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K41" s="5" t="s">
         <v>23</v>
@@ -3128,59 +3145,59 @@
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="5" t="s">
-        <v>23</v>
+      <c r="M41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O41" s="5" t="s">
-        <v>23</v>
+      <c r="O41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="P41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S41" s="5" t="s">
-        <v>23</v>
+      <c r="Q41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S41" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="42" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
       <c r="C42" s="3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D42" s="6">
-        <v>37364</v>
+        <v>38317</v>
       </c>
       <c r="E42" s="1"/>
-      <c r="F42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I42" s="4" t="s">
-        <v>24</v>
+      <c r="F42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K42" s="4" t="s">
-        <v>24</v>
+      <c r="K42" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L42" s="5" t="s">
         <v>23</v>
@@ -3191,25 +3208,25 @@
       <c r="N42" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R42" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S42" s="4" t="s">
-        <v>24</v>
+      <c r="O42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R42" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S42" s="5" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
       <c r="B43" s="2" t="s">
         <v>6</v>
@@ -3218,37 +3235,35 @@
         <v>2</v>
       </c>
       <c r="D43" s="6">
-        <v>38911</v>
-      </c>
-      <c r="E43" s="1" t="s">
-        <v>64</v>
-      </c>
+        <v>37448</v>
+      </c>
+      <c r="E43" s="1"/>
       <c r="F43" s="5" t="s">
         <v>23</v>
       </c>
       <c r="G43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M43" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N43" s="5" t="s">
-        <v>23</v>
+      <c r="H43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M43" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N43" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>24</v>
@@ -3259,75 +3274,248 @@
       <c r="Q43" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R43" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S43" s="5" t="s">
-        <v>23</v>
+      <c r="R43" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S43" s="4" t="s">
+        <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C44" s="3">
+        <v>2</v>
+      </c>
+      <c r="D44" s="6">
+        <v>37364</v>
+      </c>
+      <c r="E44" s="1"/>
+      <c r="F44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S44" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A45" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C45" s="3">
+        <v>4</v>
+      </c>
+      <c r="D45" s="6">
+        <v>38485</v>
+      </c>
+      <c r="E45" s="1"/>
+      <c r="F45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S45" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A46" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C46" s="3">
+        <v>2</v>
+      </c>
+      <c r="D46" s="6">
+        <v>38911</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="F46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="G46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R46" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B44" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C44" s="3">
+      <c r="B47" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C47" s="3">
         <v>1</v>
       </c>
-      <c r="D44" s="6">
+      <c r="D47" s="6">
         <v>38268</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S44" s="4" t="s">
+      <c r="F47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S47" s="4" t="s">
         <v>24</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:S44">
-    <sortCondition ref="A12:A44"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:S47">
+    <sortCondition ref="A12:A47"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel-hulpbestanden/beschikbaarheid-7.xlsx
+++ b/excel-hulpbestanden/beschikbaarheid-7.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\van den Akker\planner\planner-app\excel-hulpbestanden\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEF0ED17-54EA-4364-BC02-645620F839DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB54D6B1-1E71-4FD8-AA9A-CE8D17D421E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{441931CC-1960-4929-88FC-9E923128FEA4}"/>
+    <workbookView xWindow="28680" yWindow="1800" windowWidth="29040" windowHeight="16440" xr2:uid="{441931CC-1960-4929-88FC-9E923128FEA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Blad1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="778" uniqueCount="93">
   <si>
     <t>Naam</t>
   </si>
@@ -312,6 +312,9 @@
   </si>
   <si>
     <t>Tyra Vroomen</t>
+  </si>
+  <si>
+    <t>leeftijd</t>
   </si>
 </sst>
 </file>
@@ -414,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -438,6 +441,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -772,10 +776,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9E942E7-99C6-4731-BEC2-AED1E14052AD}">
-  <dimension ref="A1:S47"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:T47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -784,11 +791,13 @@
     <col min="2" max="2" width="14.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="52.5703125" bestFit="1" customWidth="1"/>
-    <col min="6" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="52.5703125" bestFit="1" customWidth="1"/>
+    <col min="7" max="19" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="11.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -801,53 +810,56 @@
       <c r="D1" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="E1" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>22</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="G1" s="11" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="H1" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="I1" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="J1" s="12" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="K1" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="L1" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="L1" s="11" t="s">
+      <c r="M1" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="M1" s="12" t="s">
+      <c r="N1" s="12" t="s">
         <v>15</v>
       </c>
-      <c r="N1" s="11" t="s">
+      <c r="O1" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="O1" s="12" t="s">
+      <c r="P1" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="P1" s="11" t="s">
+      <c r="Q1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="R1" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="R1" s="11" t="s">
+      <c r="S1" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="S1" s="12" t="s">
+      <c r="T1" s="12" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>26</v>
       </c>
@@ -860,38 +872,39 @@
       <c r="D2" s="6">
         <v>37498</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="E2" s="13">
+        <f ca="1">DATEDIF(D2, TODAY(), "Y")</f>
+        <v>22</v>
+      </c>
+      <c r="F2" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="F2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N2" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O2" s="4" t="s">
-        <v>24</v>
+      <c r="G2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O2" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P2" s="4" t="s">
         <v>24</v>
@@ -902,11 +915,14 @@
       <c r="R2" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S2" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S2" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T2" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>27</v>
       </c>
@@ -919,12 +935,13 @@
       <c r="D3" s="6">
         <v>37253</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="E3" s="13">
+        <f t="shared" ref="E3:E47" ca="1" si="0">DATEDIF(D3, TODAY(), "Y")</f>
+        <v>23</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>72</v>
       </c>
-      <c r="F3" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G3" s="5" t="s">
         <v>23</v>
       </c>
@@ -937,20 +954,20 @@
       <c r="J3" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M3" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N3" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>24</v>
+      <c r="K3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M3" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N3" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P3" s="4" t="s">
         <v>24</v>
@@ -964,8 +981,11 @@
       <c r="S3" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T3" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>28</v>
       </c>
@@ -978,12 +998,13 @@
       <c r="D4" s="6">
         <v>37166</v>
       </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>23</v>
+      <c r="E4" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H4" s="5" t="s">
         <v>23</v>
@@ -1000,14 +1021,14 @@
       <c r="L4" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M4" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O4" s="4" t="s">
-        <v>24</v>
+      <c r="M4" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P4" s="4" t="s">
         <v>24</v>
@@ -1021,8 +1042,11 @@
       <c r="S4" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T4" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>29</v>
       </c>
@@ -1035,10 +1059,11 @@
       <c r="D5" s="6">
         <v>38054</v>
       </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E5" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="5" t="s">
         <v>23</v>
       </c>
@@ -1060,8 +1085,8 @@
       <c r="M5" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="4" t="s">
-        <v>24</v>
+      <c r="N5" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O5" s="4" t="s">
         <v>24</v>
@@ -1078,8 +1103,11 @@
       <c r="S5" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T5" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>62</v>
       </c>
@@ -1092,12 +1120,13 @@
       <c r="D6" s="6">
         <v>37516</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G6" s="5" t="s">
         <v>23</v>
       </c>
@@ -1137,8 +1166,11 @@
       <c r="S6" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T6" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>30</v>
       </c>
@@ -1151,23 +1183,24 @@
       <c r="D7" s="6">
         <v>38736</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G7" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J7" s="5" t="s">
-        <v>23</v>
+      <c r="I7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K7" s="5" t="s">
         <v>23</v>
@@ -1175,20 +1208,20 @@
       <c r="L7" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O7" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P7" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q7" s="4" t="s">
-        <v>24</v>
+      <c r="M7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O7" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R7" s="4" t="s">
         <v>24</v>
@@ -1196,8 +1229,11 @@
       <c r="S7" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T7" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>31</v>
       </c>
@@ -1210,14 +1246,15 @@
       <c r="D8" s="6">
         <v>39164</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>24</v>
+      <c r="G8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H8" s="4" t="s">
         <v>24</v>
@@ -1231,11 +1268,11 @@
       <c r="K8" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L8" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M8" s="4" t="s">
-        <v>24</v>
+      <c r="L8" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M8" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N8" s="4" t="s">
         <v>24</v>
@@ -1255,8 +1292,11 @@
       <c r="S8" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T8" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>32</v>
       </c>
@@ -1269,10 +1309,11 @@
       <c r="D9" s="6">
         <v>39819</v>
       </c>
-      <c r="E9" s="1"/>
-      <c r="F9" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E9" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="4" t="s">
         <v>24</v>
       </c>
@@ -1297,23 +1338,26 @@
       <c r="N9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P9" s="4" t="s">
-        <v>24</v>
+      <c r="O9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q9" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R9" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S9" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R9" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S9" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T9" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>33</v>
       </c>
@@ -1326,29 +1370,30 @@
       <c r="D10" s="6">
         <v>39123</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="F10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J10" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L10" s="4" t="s">
-        <v>24</v>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>24</v>
@@ -1359,11 +1404,11 @@
       <c r="O10" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P10" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q10" s="4" t="s">
-        <v>24</v>
+      <c r="P10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q10" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R10" s="4" t="s">
         <v>24</v>
@@ -1371,8 +1416,11 @@
       <c r="S10" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T10" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>34</v>
       </c>
@@ -1385,14 +1433,15 @@
       <c r="D11" s="6">
         <v>39289</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F11" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G11" s="4" t="s">
-        <v>24</v>
+      <c r="G11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H11" s="4" t="s">
         <v>24</v>
@@ -1403,11 +1452,11 @@
       <c r="J11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L11" s="4" t="s">
-        <v>24</v>
+      <c r="K11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>24</v>
@@ -1415,11 +1464,11 @@
       <c r="N11" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O11" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P11" s="4" t="s">
-        <v>24</v>
+      <c r="O11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q11" s="4" t="s">
         <v>24</v>
@@ -1430,8 +1479,11 @@
       <c r="S11" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T11" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>35</v>
       </c>
@@ -1444,29 +1496,30 @@
       <c r="D12" s="6">
         <v>37508</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F12" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="F12" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G12" s="4" t="s">
-        <v>24</v>
+      <c r="G12" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I12" s="5" t="s">
-        <v>23</v>
+      <c r="I12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K12" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L12" s="5" t="s">
-        <v>23</v>
+      <c r="K12" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L12" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M12" s="5" t="s">
         <v>23</v>
@@ -1474,8 +1527,8 @@
       <c r="N12" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O12" s="4" t="s">
-        <v>24</v>
+      <c r="O12" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P12" s="4" t="s">
         <v>24</v>
@@ -1489,8 +1542,11 @@
       <c r="S12" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T12" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>83</v>
       </c>
@@ -1503,10 +1559,11 @@
       <c r="D13" s="6">
         <v>38100</v>
       </c>
-      <c r="E13" s="1"/>
-      <c r="F13" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E13" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="4" t="s">
         <v>24</v>
       </c>
@@ -1519,23 +1576,23 @@
       <c r="J13" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K13" s="5" t="s">
-        <v>23</v>
+      <c r="K13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M13" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N13" s="5" t="s">
-        <v>23</v>
+      <c r="M13" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N13" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O13" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P13" s="4" t="s">
-        <v>24</v>
+      <c r="P13" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q13" s="4" t="s">
         <v>24</v>
@@ -1546,8 +1603,11 @@
       <c r="S13" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T13" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>36</v>
       </c>
@@ -1560,10 +1620,11 @@
       <c r="D14" s="6">
         <v>37597</v>
       </c>
-      <c r="E14" s="1"/>
-      <c r="F14" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E14" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="4" t="s">
         <v>24</v>
       </c>
@@ -1591,20 +1652,23 @@
       <c r="O14" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P14" s="5" t="s">
-        <v>23</v>
+      <c r="P14" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q14" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R14" s="4" t="s">
-        <v>24</v>
+      <c r="R14" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S14" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T14" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>37</v>
       </c>
@@ -1617,18 +1681,19 @@
       <c r="D15" s="6">
         <v>38450</v>
       </c>
-      <c r="E15" s="1"/>
-      <c r="F15" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E15" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H15" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I15" s="5" t="s">
-        <v>23</v>
+      <c r="I15" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="J15" s="5" t="s">
         <v>23</v>
@@ -1636,8 +1701,8 @@
       <c r="K15" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L15" s="4" t="s">
-        <v>24</v>
+      <c r="L15" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>24</v>
@@ -1660,8 +1725,11 @@
       <c r="S15" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T15" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>38</v>
       </c>
@@ -1674,12 +1742,13 @@
       <c r="D16" s="6">
         <v>39379</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F16" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="F16" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G16" s="5" t="s">
         <v>23</v>
       </c>
@@ -1692,11 +1761,11 @@
       <c r="J16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L16" s="5" t="s">
-        <v>23</v>
+      <c r="K16" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L16" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M16" s="5" t="s">
         <v>23</v>
@@ -1704,8 +1773,8 @@
       <c r="N16" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O16" s="4" t="s">
-        <v>24</v>
+      <c r="O16" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P16" s="4" t="s">
         <v>24</v>
@@ -1716,11 +1785,14 @@
       <c r="R16" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S16" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T16" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>59</v>
       </c>
@@ -1733,12 +1805,13 @@
       <c r="D17" s="6">
         <v>38392</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="F17" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G17" s="4" t="s">
         <v>24</v>
       </c>
@@ -1778,8 +1851,11 @@
       <c r="S17" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T17" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>39</v>
       </c>
@@ -1792,12 +1868,13 @@
       <c r="D18" s="6">
         <v>37803</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F18" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="F18" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G18" s="4" t="s">
         <v>24</v>
       </c>
@@ -1816,14 +1893,14 @@
       <c r="L18" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M18" s="5" t="s">
-        <v>23</v>
+      <c r="M18" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N18" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O18" s="4" t="s">
-        <v>24</v>
+      <c r="O18" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P18" s="4" t="s">
         <v>24</v>
@@ -1837,8 +1914,11 @@
       <c r="S18" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T18" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>40</v>
       </c>
@@ -1851,12 +1931,13 @@
       <c r="D19" s="6">
         <v>39049</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>87</v>
       </c>
-      <c r="F19" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G19" s="4" t="s">
         <v>24</v>
       </c>
@@ -1869,8 +1950,8 @@
       <c r="J19" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K19" s="5" t="s">
-        <v>23</v>
+      <c r="K19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L19" s="5" t="s">
         <v>23</v>
@@ -1878,11 +1959,11 @@
       <c r="M19" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O19" s="5" t="s">
-        <v>23</v>
+      <c r="N19" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O19" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="P19" s="5" t="s">
         <v>23</v>
@@ -1896,8 +1977,11 @@
       <c r="S19" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T19" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>73</v>
       </c>
@@ -1910,23 +1994,24 @@
       <c r="D20" s="6">
         <v>39364</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F20" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G20" s="5" t="s">
         <v>23</v>
       </c>
       <c r="H20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J20" s="5" t="s">
-        <v>23</v>
+      <c r="I20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J20" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K20" s="5" t="s">
         <v>23</v>
@@ -1934,29 +2019,32 @@
       <c r="L20" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q20" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R20" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S20" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="M20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R20" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S20" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T20" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>41</v>
       </c>
@@ -1969,53 +2057,57 @@
       <c r="D21" s="6">
         <v>38635</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="F21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M21" s="4" t="s">
-        <v>24</v>
+      <c r="G21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M21" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N21" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q21" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="R21" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S21" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="S21" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T21" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -2028,17 +2120,18 @@
       <c r="D22" s="6">
         <v>37805</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="F22" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H22" s="5" t="s">
-        <v>23</v>
+      <c r="H22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I22" s="5" t="s">
         <v>23</v>
@@ -2046,8 +2139,8 @@
       <c r="J22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K22" s="4" t="s">
-        <v>24</v>
+      <c r="K22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="L22" s="4" t="s">
         <v>24</v>
@@ -2055,14 +2148,14 @@
       <c r="M22" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N22" s="5" t="s">
-        <v>23</v>
+      <c r="N22" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="O22" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="P22" s="4" t="s">
-        <v>24</v>
+      <c r="P22" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q22" s="4" t="s">
         <v>24</v>
@@ -2073,8 +2166,11 @@
       <c r="S22" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T22" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>43</v>
       </c>
@@ -2087,51 +2183,55 @@
       <c r="D23" s="6">
         <v>38632</v>
       </c>
-      <c r="E23" s="1"/>
-      <c r="F23" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H23" s="5" t="s">
-        <v>23</v>
+      <c r="E23" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F23" s="1"/>
+      <c r="G23" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="J23" s="4" t="s">
-        <v>24</v>
+      <c r="J23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="K23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L23" s="5" t="s">
-        <v>23</v>
+      <c r="L23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="4" t="s">
-        <v>24</v>
+      <c r="N23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O23" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P23" s="5" t="s">
-        <v>23</v>
+      <c r="P23" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R23" s="4" t="s">
-        <v>24</v>
+      <c r="R23" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S23" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T23" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>44</v>
       </c>
@@ -2144,10 +2244,11 @@
       <c r="D24" s="6">
         <v>40498</v>
       </c>
-      <c r="E24" s="1"/>
-      <c r="F24" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E24" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="4" t="s">
         <v>24</v>
       </c>
@@ -2181,14 +2282,17 @@
       <c r="Q24" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R24" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S24" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R24" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S24" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T24" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>89</v>
       </c>
@@ -2201,21 +2305,22 @@
       <c r="D25" s="6">
         <v>38610</v>
       </c>
-      <c r="E25" s="1"/>
-      <c r="F25" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E25" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="4" t="s">
         <v>24</v>
       </c>
       <c r="H25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="I25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J25" s="4" t="s">
-        <v>24</v>
+      <c r="I25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>24</v>
@@ -2229,11 +2334,11 @@
       <c r="N25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="O25" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="P25" s="4" t="s">
-        <v>24</v>
+      <c r="O25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P25" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="Q25" s="4" t="s">
         <v>24</v>
@@ -2241,11 +2346,14 @@
       <c r="R25" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S25" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="26" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S25" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T25" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>45</v>
       </c>
@@ -2258,12 +2366,13 @@
       <c r="D26" s="6">
         <v>39220</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>88</v>
       </c>
-      <c r="F26" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G26" s="4" t="s">
         <v>24</v>
       </c>
@@ -2303,8 +2412,11 @@
       <c r="S26" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T26" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>46</v>
       </c>
@@ -2317,10 +2429,11 @@
       <c r="D27" s="6">
         <v>40481</v>
       </c>
-      <c r="E27" s="1"/>
-      <c r="F27" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E27" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="4" t="s">
         <v>24</v>
       </c>
@@ -2354,14 +2467,17 @@
       <c r="Q27" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R27" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S27" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="28" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S27" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T27" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>75</v>
       </c>
@@ -2374,21 +2490,22 @@
       <c r="D28" s="6">
         <v>39402</v>
       </c>
-      <c r="E28" s="1"/>
-      <c r="F28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H28" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I28" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J28" s="4" t="s">
-        <v>24</v>
+      <c r="E28" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F28" s="1"/>
+      <c r="G28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H28" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J28" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>24</v>
@@ -2405,8 +2522,8 @@
       <c r="O28" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P28" s="5" t="s">
-        <v>23</v>
+      <c r="P28" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q28" s="5" t="s">
         <v>23</v>
@@ -2417,8 +2534,11 @@
       <c r="S28" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="29" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T28" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>81</v>
       </c>
@@ -2431,10 +2551,11 @@
       <c r="D29" s="6">
         <v>40452</v>
       </c>
-      <c r="E29" s="1"/>
-      <c r="F29" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E29" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="4" t="s">
         <v>24</v>
       </c>
@@ -2468,14 +2589,17 @@
       <c r="Q29" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R29" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S29" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S29" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T29" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>47</v>
       </c>
@@ -2488,18 +2612,19 @@
       <c r="D30" s="6">
         <v>39276</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E30" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="H30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I30" s="4" t="s">
-        <v>24</v>
+      <c r="H30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I30" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="J30" s="4" t="s">
         <v>24</v>
@@ -2507,11 +2632,11 @@
       <c r="K30" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="L30" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M30" s="4" t="s">
-        <v>24</v>
+      <c r="L30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N30" s="4" t="s">
         <v>24</v>
@@ -2531,8 +2656,11 @@
       <c r="S30" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T30" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>61</v>
       </c>
@@ -2545,17 +2673,18 @@
       <c r="D31" s="6">
         <v>38353</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="E31" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="F31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H31" s="5" t="s">
-        <v>23</v>
+      <c r="G31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H31" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I31" s="5" t="s">
         <v>23</v>
@@ -2563,11 +2692,11 @@
       <c r="J31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="K31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L31" s="5" t="s">
-        <v>23</v>
+      <c r="K31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L31" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M31" s="5" t="s">
         <v>23</v>
@@ -2575,23 +2704,26 @@
       <c r="N31" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P31" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q31" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R31" s="5" t="s">
-        <v>23</v>
+      <c r="O31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P31" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q31" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R31" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S31" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T31" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>48</v>
       </c>
@@ -2604,10 +2736,11 @@
       <c r="D32" s="6">
         <v>40451</v>
       </c>
-      <c r="E32" s="1"/>
-      <c r="F32" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E32" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="4" t="s">
         <v>24</v>
       </c>
@@ -2641,14 +2774,17 @@
       <c r="Q32" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R32" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S32" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="33" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R32" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S32" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T32" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>57</v>
       </c>
@@ -2661,51 +2797,55 @@
       <c r="D33" s="6">
         <v>38538</v>
       </c>
-      <c r="E33" s="1"/>
-      <c r="F33" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E33" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="4" t="s">
-        <v>24</v>
+      <c r="H33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I33" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J33" s="5" t="s">
-        <v>23</v>
+      <c r="J33" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="K33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="L33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M33" s="5" t="s">
-        <v>23</v>
+      <c r="L33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M33" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="N33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O33" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P33" s="5" t="s">
-        <v>23</v>
+      <c r="O33" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P33" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q33" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R33" s="4" t="s">
-        <v>24</v>
+      <c r="R33" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S33" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="34" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T33" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
         <v>49</v>
       </c>
@@ -2718,10 +2858,11 @@
       <c r="D34" s="6">
         <v>40114</v>
       </c>
-      <c r="E34" s="1"/>
-      <c r="F34" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E34" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="4" t="s">
         <v>24</v>
       </c>
@@ -2755,14 +2896,17 @@
       <c r="Q34" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R34" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S34" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="R34" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S34" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T34" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>50</v>
       </c>
@@ -2775,17 +2919,18 @@
       <c r="D35" s="6">
         <v>39674</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="E35" s="13">
+        <f ca="1">DATEDIF(D35, TODAY(), "Y")</f>
+        <v>16</v>
+      </c>
+      <c r="F35" s="1" t="s">
         <v>77</v>
       </c>
-      <c r="F35" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H35" s="4" t="s">
-        <v>24</v>
+      <c r="G35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I35" s="4" t="s">
         <v>24</v>
@@ -2793,11 +2938,11 @@
       <c r="J35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K35" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L35" s="4" t="s">
-        <v>24</v>
+      <c r="K35" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L35" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>24</v>
@@ -2808,8 +2953,8 @@
       <c r="O35" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P35" s="5" t="s">
-        <v>23</v>
+      <c r="P35" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q35" s="5" t="s">
         <v>23</v>
@@ -2820,8 +2965,11 @@
       <c r="S35" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="36" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T35" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>82</v>
       </c>
@@ -2834,10 +2982,11 @@
       <c r="D36" s="6">
         <v>39636</v>
       </c>
-      <c r="E36" s="1"/>
-      <c r="F36" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E36" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="4" t="s">
         <v>24</v>
       </c>
@@ -2856,29 +3005,32 @@
       <c r="L36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="M36" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N36" s="4" t="s">
-        <v>24</v>
+      <c r="M36" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O36" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P36" s="5" t="s">
-        <v>23</v>
+      <c r="P36" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="Q36" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="R36" s="4" t="s">
-        <v>24</v>
+      <c r="R36" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="S36" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="37" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T36" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>80</v>
       </c>
@@ -2891,15 +3043,16 @@
       <c r="D37" s="6">
         <v>39762</v>
       </c>
-      <c r="E37" s="1"/>
-      <c r="F37" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G37" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H37" s="5" t="s">
-        <v>23</v>
+      <c r="E37" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="F37" s="1"/>
+      <c r="G37" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H37" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="I37" s="5" t="s">
         <v>23</v>
@@ -2913,8 +3066,8 @@
       <c r="L37" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M37" s="4" t="s">
-        <v>24</v>
+      <c r="M37" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="N37" s="4" t="s">
         <v>24</v>
@@ -2928,14 +3081,17 @@
       <c r="Q37" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R37" s="5" t="s">
-        <v>23</v>
+      <c r="R37" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S37" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="38" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T37" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>51</v>
       </c>
@@ -2948,12 +3104,13 @@
       <c r="D38" s="6">
         <v>38392</v>
       </c>
-      <c r="E38" s="1"/>
-      <c r="F38" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G38" s="4" t="s">
-        <v>24</v>
+      <c r="E38" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F38" s="1"/>
+      <c r="G38" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="H38" s="4" t="s">
         <v>24</v>
@@ -2988,11 +3145,14 @@
       <c r="R38" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="S38" s="5" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="39" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S38" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T38" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="39" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>52</v>
       </c>
@@ -3005,12 +3165,13 @@
       <c r="D39" s="6">
         <v>38547</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>19</v>
+      </c>
+      <c r="F39" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F39" s="4" t="s">
-        <v>24</v>
-      </c>
       <c r="G39" s="4" t="s">
         <v>24</v>
       </c>
@@ -3038,11 +3199,11 @@
       <c r="O39" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="P39" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q39" s="4" t="s">
-        <v>24</v>
+      <c r="P39" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q39" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R39" s="4" t="s">
         <v>24</v>
@@ -3050,8 +3211,11 @@
       <c r="S39" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T39" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>53</v>
       </c>
@@ -3064,51 +3228,55 @@
       <c r="D40" s="6">
         <v>37817</v>
       </c>
-      <c r="E40" s="1"/>
-      <c r="F40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="G40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="I40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="M40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q40" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R40" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="S40" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="E40" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="F40" s="1"/>
+      <c r="G40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="H40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="J40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="R40" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S40" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T40" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="41" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>54</v>
       </c>
@@ -3121,17 +3289,18 @@
       <c r="D41" s="6">
         <v>38183</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F41" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H41" s="4" t="s">
-        <v>24</v>
+      <c r="G41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I41" s="4" t="s">
         <v>24</v>
@@ -3139,26 +3308,26 @@
       <c r="J41" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K41" s="5" t="s">
-        <v>23</v>
+      <c r="K41" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="L41" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="M41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O41" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P41" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q41" s="4" t="s">
-        <v>24</v>
+      <c r="M41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="N41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O41" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="P41" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q41" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="R41" s="4" t="s">
         <v>24</v>
@@ -3166,8 +3335,11 @@
       <c r="S41" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="42" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T41" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="42" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
@@ -3180,10 +3352,11 @@
       <c r="D42" s="6">
         <v>38317</v>
       </c>
-      <c r="E42" s="1"/>
-      <c r="F42" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E42" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="5" t="s">
         <v>23</v>
       </c>
@@ -3223,8 +3396,11 @@
       <c r="S42" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="43" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T42" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>90</v>
       </c>
@@ -3237,10 +3413,11 @@
       <c r="D43" s="6">
         <v>37448</v>
       </c>
-      <c r="E43" s="1"/>
-      <c r="F43" s="5" t="s">
-        <v>23</v>
-      </c>
+      <c r="E43" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>22</v>
+      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="5" t="s">
         <v>23</v>
       </c>
@@ -3262,8 +3439,8 @@
       <c r="M43" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="4" t="s">
-        <v>24</v>
+      <c r="N43" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="O43" s="4" t="s">
         <v>24</v>
@@ -3280,8 +3457,11 @@
       <c r="S43" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="44" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T43" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="44" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>79</v>
       </c>
@@ -3294,10 +3474,11 @@
       <c r="D44" s="6">
         <v>37364</v>
       </c>
-      <c r="E44" s="1"/>
-      <c r="F44" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E44" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>23</v>
+      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="4" t="s">
         <v>24</v>
       </c>
@@ -3307,14 +3488,14 @@
       <c r="I44" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="J44" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="K44" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L44" s="5" t="s">
-        <v>23</v>
+      <c r="J44" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K44" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="L44" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="M44" s="5" t="s">
         <v>23</v>
@@ -3322,8 +3503,8 @@
       <c r="N44" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="O44" s="4" t="s">
-        <v>24</v>
+      <c r="O44" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P44" s="4" t="s">
         <v>24</v>
@@ -3337,8 +3518,11 @@
       <c r="S44" s="4" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="45" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T44" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="45" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>91</v>
       </c>
@@ -3351,10 +3535,11 @@
       <c r="D45" s="6">
         <v>38485</v>
       </c>
-      <c r="E45" s="1"/>
-      <c r="F45" s="4" t="s">
-        <v>24</v>
-      </c>
+      <c r="E45" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="4" t="s">
         <v>24</v>
       </c>
@@ -3367,20 +3552,20 @@
       <c r="J45" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="K45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="L45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M45" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="N45" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O45" s="5" t="s">
-        <v>23</v>
+      <c r="K45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="M45" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="O45" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="P45" s="5" t="s">
         <v>23</v>
@@ -3391,11 +3576,14 @@
       <c r="R45" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="S45" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="46" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="S45" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="T45" s="4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>63</v>
       </c>
@@ -3408,17 +3596,18 @@
       <c r="D46" s="6">
         <v>38911</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="F46" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="F46" s="5" t="s">
-        <v>23</v>
-      </c>
       <c r="G46" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="H46" s="4" t="s">
-        <v>24</v>
+      <c r="H46" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="I46" s="4" t="s">
         <v>24</v>
@@ -3435,11 +3624,11 @@
       <c r="M46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="N46" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="O46" s="4" t="s">
-        <v>24</v>
+      <c r="N46" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O46" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="P46" s="4" t="s">
         <v>24</v>
@@ -3447,14 +3636,17 @@
       <c r="Q46" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="R46" s="5" t="s">
-        <v>23</v>
+      <c r="R46" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="S46" s="5" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="47" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="T46" s="5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="47" spans="1:20" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>55</v>
       </c>
@@ -3467,23 +3659,24 @@
       <c r="D47" s="6">
         <v>38268</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="13">
+        <f t="shared" ca="1" si="0"/>
+        <v>20</v>
+      </c>
+      <c r="F47" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="F47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="H47" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="I47" s="5" t="s">
-        <v>23</v>
-      </c>
-      <c r="J47" s="4" t="s">
-        <v>24</v>
+      <c r="G47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H47" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="I47" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J47" s="5" t="s">
+        <v>23</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>24</v>
@@ -3512,13 +3705,16 @@
       <c r="S47" s="4" t="s">
         <v>24</v>
       </c>
+      <c r="T47" s="4" t="s">
+        <v>24</v>
+      </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:S47">
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A12:T47">
     <sortCondition ref="A12:A47"/>
   </sortState>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <pageMargins left="0.19685039370078741" right="0.51181102362204722" top="0.32" bottom="0.21" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="49" fitToHeight="2" orientation="landscape" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>